--- a/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>RType</t>
   </si>
@@ -100,178 +100,25 @@
     <t>Natore</t>
   </si>
   <si>
-    <t>Lalpur</t>
-  </si>
-  <si>
-    <t>Puthia</t>
-  </si>
-  <si>
-    <t>Mili Telecom</t>
-  </si>
-  <si>
-    <t>Mst Selina Akter</t>
-  </si>
-  <si>
-    <t>Orient Digital Studio</t>
-  </si>
-  <si>
     <t>Najirpur</t>
   </si>
   <si>
-    <t>Bhojon Shaha</t>
-  </si>
-  <si>
     <t>Najirpur, Gurudaspur, Natore</t>
   </si>
   <si>
-    <t>Satata Enterprise</t>
-  </si>
-  <si>
-    <t>Arbab</t>
-  </si>
-  <si>
-    <t>Md Liton Ali</t>
-  </si>
-  <si>
-    <t>Arbab, Lalpur, Natore</t>
-  </si>
-  <si>
     <t>Gurudaspur</t>
   </si>
   <si>
-    <t>Kisorpur</t>
-  </si>
-  <si>
-    <t>Md Shoriful Islam</t>
-  </si>
-  <si>
-    <t>Shorif Telecom Bagha</t>
-  </si>
-  <si>
-    <t>Kishorpur, Bagha, Rajshahi</t>
-  </si>
-  <si>
-    <t>Bagha</t>
-  </si>
-  <si>
-    <t>Rajshahi</t>
-  </si>
-  <si>
-    <t>Gazi Mobile Shop</t>
-  </si>
-  <si>
-    <t>Bonpara</t>
-  </si>
-  <si>
-    <t>Boraigram</t>
-  </si>
-  <si>
-    <t>Bonpara, Natore</t>
-  </si>
-  <si>
-    <t>Muktarpur</t>
-  </si>
-  <si>
-    <t>Muktarpur, Puthia, Rajshahi.</t>
-  </si>
-  <si>
-    <t>Mostak Telecom</t>
-  </si>
-  <si>
-    <t>Singra</t>
-  </si>
-  <si>
-    <t>Md Mostafizur Rahman</t>
-  </si>
-  <si>
-    <t>Jony Telecom</t>
-  </si>
-  <si>
-    <t>Bilmaria</t>
-  </si>
-  <si>
-    <t>Md Jony Alam</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
-    <t>Bilmaria , Lalpur, Natore.</t>
-  </si>
-  <si>
-    <t>Ma Baba Enterprise</t>
-  </si>
-  <si>
-    <t>Salampur</t>
-  </si>
-  <si>
-    <t>M.M Imrul Kayes</t>
-  </si>
-  <si>
-    <t>Salampur, Lalpur, Natore</t>
-  </si>
-  <si>
-    <t>Babu Telecom</t>
-  </si>
-  <si>
-    <t>Md Sagor Gazi (Shakil)</t>
-  </si>
-  <si>
-    <t>Md Babu Islam</t>
-  </si>
-  <si>
-    <t>Bagha Bazar, Rajshahi.</t>
-  </si>
-  <si>
-    <t>Nahid Telecom</t>
-  </si>
-  <si>
-    <t>Yousufpur</t>
-  </si>
-  <si>
-    <t>Md Nahid Akter</t>
-  </si>
-  <si>
-    <t>Charghat</t>
-  </si>
-  <si>
-    <t>Yousufpur, Charghat, Rajshahi</t>
-  </si>
-  <si>
-    <t>Singra, Natore</t>
-  </si>
-  <si>
     <t>DSR-0248</t>
   </si>
   <si>
-    <t>DSR-0350</t>
-  </si>
-  <si>
-    <t>DSR-0349</t>
-  </si>
-  <si>
-    <t>DSR-0619</t>
-  </si>
-  <si>
-    <t>DSR-0247</t>
-  </si>
-  <si>
-    <t>DSR-0351</t>
-  </si>
-  <si>
-    <t>Mizan Telecom</t>
-  </si>
-  <si>
-    <t>Jamnogor</t>
-  </si>
-  <si>
-    <t>Md Mizanur Rahman</t>
-  </si>
-  <si>
-    <t>Jamnogor, Bagatipara, Natore</t>
-  </si>
-  <si>
-    <t>Bagatipara</t>
+    <t>The Dhaka Solar House</t>
+  </si>
+  <si>
+    <t>Md Liton Hosen</t>
   </si>
 </sst>
 </file>
@@ -677,7 +524,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,13 +619,13 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -792,23 +639,23 @@
         <v>34</v>
       </c>
       <c r="J2" s="1">
-        <v>1713701277</v>
+        <v>1796730694</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1713701277</v>
+        <v>1796730694</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -820,52 +667,32 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1713701277</v>
+        <v>1796730694</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1712332465</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1">
-        <v>1712332465</v>
-      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
@@ -875,53 +702,31 @@
       <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="1">
-        <v>1712332465</v>
-      </c>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1737152333</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>1737152333</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
@@ -931,53 +736,31 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1">
-        <v>1737152333</v>
-      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1306403992</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1306403992</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
@@ -987,53 +770,31 @@
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1">
-        <v>1306403992</v>
-      </c>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1719133352</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <v>1719133352</v>
-      </c>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1043,53 +804,31 @@
       <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="1">
-        <v>1719133352</v>
-      </c>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1717978325</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1">
-        <v>1717978325</v>
-      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1099,53 +838,31 @@
       <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="1">
-        <v>1717978325</v>
-      </c>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1739925510</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1">
-        <v>1739925510</v>
-      </c>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1155,53 +872,31 @@
       <c r="S8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="1">
-        <v>1739925510</v>
-      </c>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1762864696</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1">
-        <v>1762864696</v>
-      </c>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1211,53 +906,31 @@
       <c r="S9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="1">
-        <v>1762864696</v>
-      </c>
+      <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1717171034</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1">
-        <v>1717171034</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,53 +940,31 @@
       <c r="S10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="1">
-        <v>1717171034</v>
-      </c>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1734353794</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1">
-        <v>1734353794</v>
-      </c>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,53 +974,31 @@
       <c r="S11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="1">
-        <v>1734353794</v>
-      </c>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1713761366</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1">
-        <v>1713761366</v>
-      </c>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1379,9 +1008,7 @@
       <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="1">
-        <v>1713761366</v>
-      </c>
+      <c r="T12" s="1"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="5" t="s">

--- a/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
   <si>
     <t>RType</t>
   </si>
@@ -100,25 +100,61 @@
     <t>Natore</t>
   </si>
   <si>
-    <t>Najirpur</t>
-  </si>
-  <si>
-    <t>Najirpur, Gurudaspur, Natore</t>
-  </si>
-  <si>
-    <t>Gurudaspur</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
-    <t>DSR-0248</t>
-  </si>
-  <si>
-    <t>The Dhaka Solar House</t>
-  </si>
-  <si>
-    <t>Md Liton Hosen</t>
+    <t>Ayan Telecom</t>
+  </si>
+  <si>
+    <t>Doyarampur</t>
+  </si>
+  <si>
+    <t>Md Tuhin</t>
+  </si>
+  <si>
+    <t>MK Shopping Complex, Doyarampur, Natore</t>
+  </si>
+  <si>
+    <t>Bagatipara</t>
+  </si>
+  <si>
+    <t>DSR-0619</t>
+  </si>
+  <si>
+    <t>IPN Telecom</t>
+  </si>
+  <si>
+    <t>Natore Sadar</t>
+  </si>
+  <si>
+    <t>Samsul Alam</t>
+  </si>
+  <si>
+    <t>Probal Super Market, Kanaikhali, Natore</t>
+  </si>
+  <si>
+    <t>Padma-2</t>
+  </si>
+  <si>
+    <t>Central Masjid Market</t>
+  </si>
+  <si>
+    <t>Md Kamrul Hasan</t>
+  </si>
+  <si>
+    <t>Central Masjid Market, Natore Sadar, Natore</t>
+  </si>
+  <si>
+    <t>Zam Zam Multi Brand Shop</t>
+  </si>
+  <si>
+    <t>Md Saiful Islam</t>
+  </si>
+  <si>
+    <t>DSR-0246</t>
+  </si>
+  <si>
+    <t>Kanaikhaki. Natore</t>
   </si>
 </sst>
 </file>
@@ -524,7 +560,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +578,7 @@
     <col min="11" max="11" width="8" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -619,16 +655,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -636,26 +672,26 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1">
-        <v>1796730694</v>
+        <v>1753838319</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1796730694</v>
+        <v>1753838319</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -667,32 +703,52 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1796730694</v>
+        <v>1753838319</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1744561188</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1">
+        <v>1744561188</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
@@ -702,31 +758,53 @@
       <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1">
+        <v>1744561188</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1716824454</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>1716824454</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
@@ -736,31 +814,53 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1">
+        <v>1716824454</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1716319664</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <v>1716319664</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
@@ -770,7 +870,9 @@
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>1716319664</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -884,7 +986,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -918,7 +1020,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -952,7 +1054,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>

--- a/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
+++ b/Symphony/Others/Adding New Retailer Format/Adding new retailers format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="40">
   <si>
     <t>RType</t>
   </si>
@@ -103,58 +103,37 @@
     <t>Go</t>
   </si>
   <si>
-    <t>Ayan Telecom</t>
-  </si>
-  <si>
-    <t>Doyarampur</t>
-  </si>
-  <si>
-    <t>Md Tuhin</t>
-  </si>
-  <si>
-    <t>MK Shopping Complex, Doyarampur, Natore</t>
-  </si>
-  <si>
-    <t>Bagatipara</t>
-  </si>
-  <si>
     <t>DSR-0619</t>
   </si>
   <si>
-    <t>IPN Telecom</t>
-  </si>
-  <si>
-    <t>Natore Sadar</t>
-  </si>
-  <si>
-    <t>Samsul Alam</t>
-  </si>
-  <si>
-    <t>Probal Super Market, Kanaikhali, Natore</t>
-  </si>
-  <si>
-    <t>Padma-2</t>
-  </si>
-  <si>
-    <t>Central Masjid Market</t>
-  </si>
-  <si>
-    <t>Md Kamrul Hasan</t>
-  </si>
-  <si>
-    <t>Central Masjid Market, Natore Sadar, Natore</t>
-  </si>
-  <si>
-    <t>Zam Zam Multi Brand Shop</t>
-  </si>
-  <si>
-    <t>Md Saiful Islam</t>
-  </si>
-  <si>
-    <t>DSR-0246</t>
-  </si>
-  <si>
-    <t>Kanaikhaki. Natore</t>
+    <t>Anik Electronics &amp; Mobile Center</t>
+  </si>
+  <si>
+    <t>Singra</t>
+  </si>
+  <si>
+    <t>Md Anisur Rahman</t>
+  </si>
+  <si>
+    <t>Munna Market, Jamtoli Nicha Bazar, Singa</t>
+  </si>
+  <si>
+    <t>DSR-0247</t>
+  </si>
+  <si>
+    <t>SS Telecom</t>
+  </si>
+  <si>
+    <t>Bonpara</t>
+  </si>
+  <si>
+    <t>Md Tarek Aziz(Manik)</t>
+  </si>
+  <si>
+    <t>Bonpara, Baraigham, Natore</t>
+  </si>
+  <si>
+    <t>Baraigram</t>
   </si>
 </sst>
 </file>
@@ -560,7 +539,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,13 +637,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -672,26 +651,26 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1">
-        <v>1753838319</v>
+        <v>1716933348</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1">
-        <v>1753838319</v>
+        <v>1716933348</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>22</v>
@@ -703,7 +682,7 @@
         <v>21</v>
       </c>
       <c r="T2" s="1">
-        <v>1753838319</v>
+        <v>1716933348</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -711,13 +690,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -731,13 +710,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="1">
-        <v>1744561188</v>
+        <v>1743444192</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -747,7 +726,7 @@
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1">
-        <v>1744561188</v>
+        <v>1743444192</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>22</v>
@@ -759,52 +738,34 @@
         <v>21</v>
       </c>
       <c r="T3" s="1">
-        <v>1744561188</v>
+        <v>1743444192</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1716824454</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>1716824454</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,53 +775,33 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1">
-        <v>1716824454</v>
-      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1716319664</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1716319664</v>
-      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
@@ -870,9 +811,7 @@
       <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1">
-        <v>1716319664</v>
-      </c>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
